--- a/DealWithExcel/bin/Release/Data/AllEnglishData.xlsx
+++ b/DealWithExcel/bin/Release/Data/AllEnglishData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdulrahman\source\repos\DealWithExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdulrahman\source\repos\DealWithExcel\DealWithExcel\bin\Release\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D5D5B-BA07-477F-B0FE-7BFC9651E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62177B8C-E79C-4B88-B00E-6B5D45DCDD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A633092-06FA-4B38-A23C-AF1F9B3D2E96}"/>
   </bookViews>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01E3BB-3C4D-4C63-AE2C-203BD531901E}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4"/>
     </row>
